--- a/data/bryan-fury-tekken-8-frame-data.xlsx
+++ b/data/bryan-fury-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -556,15 +548,11 @@
       <c r="D4" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -594,15 +582,11 @@
       <c r="D5" t="n">
         <v>23</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -628,15 +612,11 @@
       <c r="D6" t="n">
         <v>19</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -662,15 +642,11 @@
       <c r="D7" t="n">
         <v>26</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+51</t>
-        </is>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>51</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -696,15 +672,11 @@
       <c r="D8" t="n">
         <v>24</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -758,15 +730,11 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +761,8 @@
         <v>12</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F11" t="n">
+        <v>-2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -823,10 +789,8 @@
         <v>28</v>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="F12" t="n">
+        <v>16</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -848,15 +812,11 @@
       <c r="D13" t="n">
         <v>15</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -882,15 +842,11 @@
       <c r="D14" t="n">
         <v>24</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -916,15 +872,11 @@
       <c r="D15" t="n">
         <v>19</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+55</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>55</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -946,15 +898,11 @@
       <c r="D16" t="n">
         <v>24</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+41</t>
-        </is>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>41</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -980,15 +928,11 @@
       <c r="D17" t="n">
         <v>30</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+40</t>
-        </is>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1034,15 +978,11 @@
       <c r="D19" t="n">
         <v>21</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1064,15 +1004,11 @@
       <c r="D20" t="n">
         <v>23</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,15 +1038,11 @@
       <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1132,15 +1064,11 @@
       <c r="D22" t="n">
         <v>16</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1166,15 +1094,11 @@
       <c r="D23" t="n">
         <v>16</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1205,10 +1129,8 @@
         <v>12</v>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1234,15 +1156,11 @@
       <c r="D25" t="n">
         <v>16</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1264,15 +1182,11 @@
       <c r="D26" t="n">
         <v>22</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1298,15 +1212,11 @@
       <c r="D27" t="n">
         <v>20</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -1332,15 +1242,11 @@
       <c r="D28" t="n">
         <v>20</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1366,15 +1272,11 @@
       <c r="D29" t="n">
         <v>22</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1396,15 +1298,11 @@
       <c r="D30" t="n">
         <v>23</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1426,15 +1324,11 @@
       <c r="D31" t="n">
         <v>22</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+43</t>
-        </is>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>43</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1460,15 +1354,11 @@
       <c r="D32" t="n">
         <v>28</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+37</t>
-        </is>
+      <c r="E32" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>37</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1494,15 +1384,11 @@
       <c r="D33" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1528,15 +1414,11 @@
       <c r="D34" t="n">
         <v>14</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>35</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1562,15 +1444,11 @@
       <c r="D35" t="n">
         <v>55</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+66</t>
-        </is>
+      <c r="E35" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>66</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -1596,15 +1474,11 @@
       <c r="D36" t="n">
         <v>12</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1626,15 +1500,11 @@
       <c r="D37" t="n">
         <v>24</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1660,15 +1530,11 @@
       <c r="D38" t="n">
         <v>24</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1694,15 +1560,11 @@
       <c r="D39" t="n">
         <v>24</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1732,15 +1594,11 @@
       <c r="D40" t="n">
         <v>20</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1810,15 +1668,11 @@
       <c r="D43" t="n">
         <v>28</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1841,10 +1695,8 @@
         <v>53</v>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F44" t="n">
+        <v>7</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1974,15 +1826,11 @@
       <c r="D50" t="n">
         <v>19</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2004,15 +1852,11 @@
       <c r="D51" t="n">
         <v>22</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2042,15 +1886,11 @@
       <c r="D52" t="n">
         <v>16</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2136,15 +1976,11 @@
       <c r="D56" t="n">
         <v>16</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2165,10 +2001,8 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="F57" t="n">
+        <v>-1</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2190,15 +2024,11 @@
       <c r="D58" t="n">
         <v>21</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E58" t="n">
+        <v>19</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-7</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2220,15 +2050,11 @@
       <c r="D59" t="n">
         <v>29</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E59" t="n">
+        <v>13</v>
+      </c>
+      <c r="F59" t="n">
+        <v>14</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2254,15 +2080,11 @@
       <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2288,15 +2110,11 @@
       <c r="D61" t="n">
         <v>30</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+53</t>
-        </is>
+      <c r="E61" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>53</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2322,15 +2140,11 @@
       <c r="D62" t="n">
         <v>27</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E62" t="n">
+        <v>13</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2356,15 +2170,11 @@
       <c r="D63" t="n">
         <v>14</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2386,15 +2196,11 @@
       <c r="D64" t="n">
         <v>22</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>16</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2424,15 +2230,11 @@
       <c r="D65" t="n">
         <v>16</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E65" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2454,15 +2256,11 @@
       <c r="D66" t="n">
         <v>21</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>35</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2488,15 +2286,11 @@
       <c r="D67" t="n">
         <v>19</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E67" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2518,15 +2312,11 @@
       <c r="D68" t="n">
         <v>19</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2552,15 +2342,11 @@
       <c r="D69" t="n">
         <v>15</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>11</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2582,15 +2368,11 @@
       <c r="D70" t="n">
         <v>15</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E70" t="n">
+        <v>9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2616,15 +2398,11 @@
       <c r="D71" t="n">
         <v>15</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E71" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2646,15 +2424,11 @@
       <c r="D72" t="n">
         <v>16</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E72" t="n">
+        <v>12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2680,15 +2454,11 @@
       <c r="D73" t="n">
         <v>15</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2710,15 +2480,11 @@
       <c r="D74" t="n">
         <v>10</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-4</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2744,15 +2510,11 @@
       <c r="D75" t="n">
         <v>10</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-4</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2778,15 +2540,11 @@
       <c r="D76" t="n">
         <v>10</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-4</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2812,15 +2570,11 @@
       <c r="D77" t="n">
         <v>23</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2850,15 +2604,11 @@
       <c r="D78" t="n">
         <v>13</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E78" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -2880,15 +2630,11 @@
       <c r="D79" t="n">
         <v>6</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2914,15 +2660,11 @@
       <c r="D80" t="n">
         <v>23</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E80" t="n">
+        <v>13</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2948,15 +2690,11 @@
       <c r="D81" t="n">
         <v>29</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+70</t>
-        </is>
+      <c r="E81" t="n">
+        <v>26</v>
+      </c>
+      <c r="F81" t="n">
+        <v>70</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -2982,15 +2720,11 @@
       <c r="D82" t="n">
         <v>22</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="n">
+        <v>19</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3016,15 +2750,11 @@
       <c r="D83" t="n">
         <v>20</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+44</t>
-        </is>
+      <c r="E83" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>44</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3050,16 +2780,10 @@
       <c r="D84" t="n">
         <v>15</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
     </row>
@@ -3080,15 +2804,11 @@
       <c r="D85" t="n">
         <v>10</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3114,15 +2834,11 @@
       <c r="D86" t="n">
         <v>18</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E86" t="n">
+        <v>13</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3148,15 +2864,11 @@
       <c r="D87" t="n">
         <v>14</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E87" t="n">
+        <v>12</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -3182,15 +2894,11 @@
       <c r="D88" t="n">
         <v>22</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E88" t="n">
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>14</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3216,15 +2924,11 @@
       <c r="D89" t="n">
         <v>35</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3250,15 +2954,11 @@
       <c r="D90" t="n">
         <v>16</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3284,15 +2984,11 @@
       <c r="D91" t="n">
         <v>18</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E91" t="n">
+        <v>9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -3314,15 +3010,11 @@
       <c r="D92" t="n">
         <v>25</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-13c</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+40</t>
-        </is>
+      <c r="E92" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" t="n">
+        <v>40</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3349,10 +3041,8 @@
         <v>11</v>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F93" t="n">
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3378,15 +3068,11 @@
       <c r="D94" t="n">
         <v>13</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3408,15 +3094,11 @@
       <c r="D95" t="n">
         <v>22</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+34</t>
-        </is>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>34</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3442,15 +3124,11 @@
       <c r="D96" t="n">
         <v>15</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3472,15 +3150,11 @@
       <c r="D97" t="n">
         <v>13</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+41</t>
-        </is>
+      <c r="E97" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>41</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3506,15 +3180,11 @@
       <c r="D98" t="n">
         <v>24</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+28</t>
-        </is>
+      <c r="E98" t="n">
+        <v>13</v>
+      </c>
+      <c r="F98" t="n">
+        <v>28</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3544,15 +3214,11 @@
       <c r="D99" t="n">
         <v>34</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+71</t>
-        </is>
+      <c r="E99" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>71</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3578,15 +3244,11 @@
       <c r="D100" t="n">
         <v>16</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3612,15 +3274,11 @@
       <c r="D101" t="n">
         <v>22</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E101" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3646,15 +3304,11 @@
       <c r="D102" t="n">
         <v>14</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+43</t>
-        </is>
+      <c r="E102" t="n">
+        <v>7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>43</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -3676,15 +3330,11 @@
       <c r="D103" t="n">
         <v>16</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E103" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-1</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3705,10 +3355,8 @@
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F104" t="n">
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
@@ -3770,15 +3418,11 @@
       <c r="D107" t="n">
         <v>20</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E107" t="n">
+        <v>15</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3803,10 +3447,8 @@
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F108" t="n">
+        <v>6</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -3832,15 +3474,11 @@
       <c r="D109" t="n">
         <v>15</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E109" t="n">
+        <v>9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>23</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -3866,15 +3504,11 @@
       <c r="D110" t="n">
         <v>15</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E110" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -3896,15 +3530,11 @@
       <c r="D111" t="n">
         <v>15</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+33</t>
-        </is>
+      <c r="E111" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>33</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -3930,15 +3560,11 @@
       <c r="D112" t="n">
         <v>25</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E112" t="n">
+        <v>7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -3965,10 +3591,8 @@
         <v>16</v>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F113" t="n">
+        <v>5</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
@@ -3994,15 +3618,11 @@
       <c r="D114" t="n">
         <v>18</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E114" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -4088,15 +3708,11 @@
       <c r="D118" t="n">
         <v>13</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+33</t>
-        </is>
+      <c r="E118" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>33</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4146,15 +3762,11 @@
       <c r="D120" t="n">
         <v>17</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4180,15 +3792,11 @@
       <c r="D121" t="n">
         <v>17</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E121" t="n">
+        <v>9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -4210,15 +3818,11 @@
       <c r="D122" t="n">
         <v>21</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+43</t>
-        </is>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>43</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
@@ -4244,15 +3848,11 @@
       <c r="D123" t="n">
         <v>13</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+36</t>
-        </is>
+      <c r="E123" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>36</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4282,15 +3882,11 @@
       <c r="D124" t="n">
         <v>15</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E124" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-9</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4312,15 +3908,11 @@
       <c r="D125" t="n">
         <v>22</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E125" t="n">
+        <v>9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4346,15 +3938,11 @@
       <c r="D126" t="n">
         <v>19</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E126" t="n">
+        <v>13</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4380,15 +3968,11 @@
       <c r="D127" t="n">
         <v>17</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -4410,15 +3994,11 @@
       <c r="D128" t="n">
         <v>15</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E128" t="n">
+        <v>16</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-6</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4658,15 +4238,11 @@
         <v>39</v>
       </c>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="E138" t="n">
+        <v>35</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-15</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
@@ -4693,10 +4269,8 @@
         <v>12</v>
       </c>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="F139" t="n">
+        <v>-5</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -4722,15 +4296,11 @@
       <c r="D140" t="n">
         <v>13</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E140" t="n">
+        <v>10</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -4752,15 +4322,11 @@
       <c r="D141" t="n">
         <v>10</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E141" t="n">
+        <v>10</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -4786,15 +4352,11 @@
       <c r="D142" t="n">
         <v>10</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E142" t="n">
+        <v>10</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -4820,15 +4382,11 @@
       <c r="D143" t="n">
         <v>22</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="E143" t="n">
+        <v>15</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
@@ -4854,15 +4412,11 @@
       <c r="D144" t="n">
         <v>10</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="E144" t="n">
+        <v>12</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
@@ -4888,10 +4442,8 @@
       <c r="D145" t="n">
         <v>10</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="E145" t="n">
+        <v>12</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -4918,10 +4470,8 @@
       <c r="D146" t="n">
         <v>22</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="E146" t="n">
+        <v>15</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -4948,15 +4498,11 @@
       <c r="D147" t="n">
         <v>27</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -4978,15 +4524,11 @@
       <c r="D148" t="n">
         <v>16</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E148" t="n">
+        <v>7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -5028,15 +4570,11 @@
       <c r="D150" t="n">
         <v>23</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>+32</t>
-        </is>
+      <c r="E150" t="n">
+        <v>13</v>
+      </c>
+      <c r="F150" t="n">
+        <v>32</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -5058,15 +4596,11 @@
       <c r="D151" t="n">
         <v>15</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="E151" t="n">
+        <v>14</v>
+      </c>
+      <c r="F151" t="n">
+        <v>35</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
@@ -5092,15 +4626,11 @@
       <c r="D152" t="n">
         <v>19</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="E152" t="n">
+        <v>10</v>
+      </c>
+      <c r="F152" t="n">
+        <v>50</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -5122,15 +4652,11 @@
       <c r="D153" t="n">
         <v>12</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E153" t="n">
+        <v>10</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5156,15 +4682,11 @@
       <c r="D154" t="n">
         <v>28</v>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E154" t="n">
+        <v>10</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5190,15 +4712,11 @@
       <c r="D155" t="n">
         <v>11</v>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E155" t="n">
+        <v>6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>

--- a/data/bryan-fury-tekken-8-frame-data.xlsx
+++ b/data/bryan-fury-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -583,7 +583,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="n">
         <v>51</v>
@@ -673,7 +673,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
@@ -813,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F16" t="n">
         <v>41</v>
@@ -929,7 +929,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F17" t="n">
         <v>40</v>
@@ -979,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>7</v>
@@ -1065,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -1095,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F23" t="n">
         <v>6</v>
@@ -1157,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F25" t="n">
         <v>7</v>
@@ -1183,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F27" t="n">
         <v>2</v>
@@ -1243,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F30" t="n">
         <v>6</v>
@@ -1325,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F31" t="n">
         <v>43</v>
@@ -1355,7 +1355,7 @@
         <v>28</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F32" t="n">
         <v>37</v>
@@ -1385,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F33" t="n">
         <v>8</v>
@@ -1415,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
         <v>35</v>
@@ -1445,7 +1445,7 @@
         <v>55</v>
       </c>
       <c r="E35" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>66</v>
@@ -1475,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F36" t="n">
         <v>6</v>
@@ -1501,7 +1501,7 @@
         <v>24</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F37" t="n">
         <v>2</v>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F39" t="n">
         <v>6</v>
@@ -1595,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>7</v>
@@ -1669,7 +1669,7 @@
         <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F43" t="n">
         <v>7</v>
@@ -1827,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
@@ -1853,7 +1853,7 @@
         <v>22</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
@@ -1887,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F52" t="n">
         <v>7</v>
@@ -1977,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F56" t="n">
         <v>15</v>
@@ -2025,7 +2025,7 @@
         <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F58" t="n">
         <v>-7</v>
@@ -2051,7 +2051,7 @@
         <v>29</v>
       </c>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F59" t="n">
         <v>14</v>
@@ -2081,7 +2081,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
@@ -2111,7 +2111,7 @@
         <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
         <v>53</v>
@@ -2141,7 +2141,7 @@
         <v>27</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F62" t="n">
         <v>5</v>
@@ -2171,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F63" t="n">
         <v>8</v>
@@ -2197,7 +2197,7 @@
         <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F64" t="n">
         <v>16</v>
@@ -2231,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F66" t="n">
         <v>35</v>
@@ -2287,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F67" t="n">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F68" t="n">
         <v>14</v>
@@ -2343,7 +2343,7 @@
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F70" t="n">
         <v>4</v>
@@ -2399,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F71" t="n">
         <v>8</v>
@@ -2425,7 +2425,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F72" t="n">
         <v>-1</v>
@@ -2455,7 +2455,7 @@
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F74" t="n">
         <v>-4</v>
@@ -2511,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F75" t="n">
         <v>-4</v>
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F76" t="n">
         <v>-4</v>
@@ -2571,7 +2571,7 @@
         <v>23</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>13</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F78" t="n">
         <v>5</v>
@@ -2631,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F79" t="n">
         <v>5</v>
@@ -2661,7 +2661,7 @@
         <v>23</v>
       </c>
       <c r="E80" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F80" t="n">
         <v>8</v>
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="E81" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F81" t="n">
         <v>70</v>
@@ -2721,7 +2721,7 @@
         <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F82" t="n">
         <v>19</v>
@@ -2751,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F83" t="n">
         <v>44</v>
@@ -2781,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
@@ -2865,7 +2865,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -2925,7 +2925,7 @@
         <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>18</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F92" t="n">
         <v>40</v>
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F94" t="n">
         <v>4</v>
@@ -3095,7 +3095,7 @@
         <v>22</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F95" t="n">
         <v>34</v>
@@ -3125,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F96" t="n">
         <v>13</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F97" t="n">
         <v>41</v>
@@ -3181,7 +3181,7 @@
         <v>24</v>
       </c>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F98" t="n">
         <v>28</v>
@@ -3215,7 +3215,7 @@
         <v>34</v>
       </c>
       <c r="E99" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>71</v>
@@ -3245,7 +3245,7 @@
         <v>16</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F100" t="n">
         <v>15</v>
@@ -3275,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="E101" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F101" t="n">
         <v>13</v>
@@ -3305,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F102" t="n">
         <v>43</v>
@@ -3331,7 +3331,7 @@
         <v>16</v>
       </c>
       <c r="E103" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F103" t="n">
         <v>-1</v>
@@ -3419,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F109" t="n">
         <v>23</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
@@ -3531,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F111" t="n">
         <v>33</v>
@@ -3561,7 +3561,7 @@
         <v>25</v>
       </c>
       <c r="E112" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F112" t="n">
         <v>14</v>
@@ -3619,7 +3619,7 @@
         <v>18</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -3709,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
         <v>33</v>
@@ -3763,7 +3763,7 @@
         <v>17</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F120" t="n">
         <v>8</v>
@@ -3793,7 +3793,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -3819,7 +3819,7 @@
         <v>21</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F122" t="n">
         <v>43</v>
@@ -3849,7 +3849,7 @@
         <v>13</v>
       </c>
       <c r="E123" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F123" t="n">
         <v>36</v>
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
         <v>-9</v>
@@ -3909,7 +3909,7 @@
         <v>22</v>
       </c>
       <c r="E125" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F125" t="n">
         <v>15</v>
@@ -3939,7 +3939,7 @@
         <v>19</v>
       </c>
       <c r="E126" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F126" t="n">
         <v>5</v>
@@ -3969,7 +3969,7 @@
         <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F127" t="n">
         <v>31</v>
@@ -3995,7 +3995,7 @@
         <v>15</v>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F128" t="n">
         <v>-6</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="F138" t="n">
         <v>-15</v>
@@ -4297,7 +4297,7 @@
         <v>13</v>
       </c>
       <c r="E140" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="E141" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="E142" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -4383,7 +4383,7 @@
         <v>22</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F143" t="n">
         <v>30</v>
@@ -4413,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="E144" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F144" t="n">
         <v>21</v>
@@ -4443,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -4471,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E146" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -4499,7 +4499,7 @@
         <v>27</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F147" t="n">
         <v>15</v>
@@ -4525,7 +4525,7 @@
         <v>16</v>
       </c>
       <c r="E148" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F148" t="n">
         <v>8</v>
@@ -4571,7 +4571,7 @@
         <v>23</v>
       </c>
       <c r="E150" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F150" t="n">
         <v>32</v>
@@ -4597,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="E151" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F151" t="n">
         <v>35</v>
@@ -4627,7 +4627,7 @@
         <v>19</v>
       </c>
       <c r="E152" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F152" t="n">
         <v>50</v>
@@ -4653,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F153" t="n">
         <v>4</v>
@@ -4683,7 +4683,7 @@
         <v>28</v>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F154" t="n">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="E155" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F155" t="n">
         <v>5</v>
